--- a/state_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/state_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.0115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0162050757691297</v>
+        <v>0.0162112451297658</v>
       </c>
       <c r="H3" t="n">
         <v>0.135</v>
@@ -732,7 +732,7 @@
         <v>0.0115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0162050757691297</v>
+        <v>0.0162112451297658</v>
       </c>
       <c r="H4" t="n">
         <v>0.135</v>
@@ -813,7 +813,7 @@
         <v>0.00068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0033070645313902</v>
+        <v>0.0033141019019625</v>
       </c>
       <c r="H5" t="n">
         <v>0.0295616230399037</v>
@@ -894,7 +894,7 @@
         <v>0.00068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0033070645313902</v>
+        <v>0.0033141019019625</v>
       </c>
       <c r="H6" t="n">
         <v>0.0295616230399037</v>
@@ -975,7 +975,7 @@
         <v>0.0105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0119935641732182</v>
+        <v>0.012006391296313</v>
       </c>
       <c r="H7" t="n">
         <v>0.053</v>
@@ -1056,7 +1056,7 @@
         <v>0.0105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0119935641732182</v>
+        <v>0.012006391296313</v>
       </c>
       <c r="H8" t="n">
         <v>0.053</v>
@@ -1133,13 +1133,13 @@
         <v>0.017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.021788676332479</v>
+        <v>0.0217485225255665</v>
       </c>
       <c r="H9" t="n">
         <v>0.151</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0561</v>
+        <v>0.05596</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
         <v>0.03</v>
       </c>
       <c r="N9" t="n">
-        <v>0.038</v>
+        <v>0.03798</v>
       </c>
       <c r="O9" t="n">
         <v>1820825.9</v>
@@ -1210,13 +1210,13 @@
         <v>0.017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.021788676332479</v>
+        <v>0.0217485225255665</v>
       </c>
       <c r="H10" t="n">
         <v>0.151</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0561</v>
+        <v>0.05596</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1227,7 +1227,7 @@
         <v>0.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0.038</v>
+        <v>0.03798</v>
       </c>
       <c r="O10" t="n">
         <v>1820825.9</v>
@@ -1372,7 +1372,7 @@
         <v>0.016</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0179313778669993</v>
+        <v>0.017935918761541</v>
       </c>
       <c r="H12" t="n">
         <v>0.135</v>
@@ -1453,7 +1453,7 @@
         <v>0.016</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0179313778669993</v>
+        <v>0.017935918761541</v>
       </c>
       <c r="H13" t="n">
         <v>0.135</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0028394715694082</v>
+        <v>0.0028534788962512</v>
       </c>
       <c r="H14" t="n">
         <v>0.0295616230399037</v>
@@ -1545,7 +1545,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.00063</v>
+        <v>0.00067</v>
       </c>
       <c r="M14" t="n">
         <v>0.00502</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0028394715694082</v>
+        <v>0.0028534788962512</v>
       </c>
       <c r="H15" t="n">
         <v>0.0295616230399037</v>
@@ -1626,7 +1626,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.00063</v>
+        <v>0.00067</v>
       </c>
       <c r="M15" t="n">
         <v>0.00502</v>
@@ -1696,7 +1696,7 @@
         <v>0.00705</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0109474893499502</v>
+        <v>0.0109716630256947</v>
       </c>
       <c r="H16" t="n">
         <v>0.053</v>
@@ -1777,7 +1777,7 @@
         <v>0.00705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0109474893499502</v>
+        <v>0.0109716630256947</v>
       </c>
       <c r="H17" t="n">
         <v>0.053</v>
@@ -1854,13 +1854,13 @@
         <v>0.0135</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0207590346524431</v>
+        <v>0.0207191647733047</v>
       </c>
       <c r="H18" t="n">
         <v>0.151</v>
       </c>
       <c r="I18" t="n">
-        <v>0.054</v>
+        <v>0.0538</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1868,7 +1868,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0293</v>
+        <v>0.02895</v>
       </c>
       <c r="N18" t="n">
         <v>0.0415</v>
@@ -1931,13 +1931,13 @@
         <v>0.0135</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0207590346524431</v>
+        <v>0.0207191647733047</v>
       </c>
       <c r="H19" t="n">
         <v>0.151</v>
       </c>
       <c r="I19" t="n">
-        <v>0.054</v>
+        <v>0.0538</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0293</v>
+        <v>0.02895</v>
       </c>
       <c r="N19" t="n">
         <v>0.0415</v>
@@ -2093,7 +2093,7 @@
         <v>0.018</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0200035520602295</v>
+        <v>0.0200048697561047</v>
       </c>
       <c r="H21" t="n">
         <v>0.135</v>
@@ -2174,7 +2174,7 @@
         <v>0.018</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0200035520602295</v>
+        <v>0.0200048697561047</v>
       </c>
       <c r="H22" t="n">
         <v>0.135</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00107</v>
+        <v>0.0011</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002407397467628</v>
+        <v>0.0024270979952366</v>
       </c>
       <c r="H23" t="n">
         <v>0.0295616230399037</v>
@@ -2266,10 +2266,10 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00107</v>
+        <v>0.0011</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00313</v>
+        <v>0.00315</v>
       </c>
       <c r="N23" t="n">
         <v>0.00533</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.00107</v>
+        <v>0.0011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002407397467628</v>
+        <v>0.0024270979952366</v>
       </c>
       <c r="H24" t="n">
         <v>0.0295616230399037</v>
@@ -2347,10 +2347,10 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00107</v>
+        <v>0.0011</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00313</v>
+        <v>0.00315</v>
       </c>
       <c r="N24" t="n">
         <v>0.00533</v>
@@ -2417,7 +2417,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0119033469269475</v>
+        <v>0.0119266184486079</v>
       </c>
       <c r="H25" t="n">
         <v>0.053</v>
@@ -2498,7 +2498,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0119033469269475</v>
+        <v>0.0119266184486079</v>
       </c>
       <c r="H26" t="n">
         <v>0.053</v>
@@ -2575,13 +2575,13 @@
         <v>0.0135</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0190411363801741</v>
+        <v>0.0190169599136941</v>
       </c>
       <c r="H27" t="n">
         <v>0.083</v>
       </c>
       <c r="I27" t="n">
-        <v>0.049</v>
+        <v>0.0488</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0305</v>
+        <v>0.03015</v>
       </c>
       <c r="N27" t="n">
         <v>0.0415</v>
@@ -2652,13 +2652,13 @@
         <v>0.0135</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0190411363801741</v>
+        <v>0.0190169599136941</v>
       </c>
       <c r="H28" t="n">
         <v>0.083</v>
       </c>
       <c r="I28" t="n">
-        <v>0.049</v>
+        <v>0.0488</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2666,7 +2666,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0305</v>
+        <v>0.03015</v>
       </c>
       <c r="N28" t="n">
         <v>0.0415</v>
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00128</v>
+        <v>0.0013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0026760668454414</v>
+        <v>0.0026997970264244</v>
       </c>
       <c r="H32" t="n">
         <v>0.0295616230399037</v>
@@ -2987,10 +2987,10 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.00121</v>
+        <v>0.00125</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0033</v>
+        <v>0.00331</v>
       </c>
       <c r="N32" t="n">
         <v>0.00596</v>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00128</v>
+        <v>0.0013</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0026760668454414</v>
+        <v>0.0026997970264244</v>
       </c>
       <c r="H33" t="n">
         <v>0.0295616230399037</v>
@@ -3068,10 +3068,10 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00121</v>
+        <v>0.00125</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0033</v>
+        <v>0.00331</v>
       </c>
       <c r="N33" t="n">
         <v>0.00596</v>
@@ -3138,7 +3138,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0115604336586844</v>
+        <v>0.0115895230607599</v>
       </c>
       <c r="H34" t="n">
         <v>0.034</v>
@@ -3219,7 +3219,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0115604336586844</v>
+        <v>0.0115895230607599</v>
       </c>
       <c r="H35" t="n">
         <v>0.034</v>
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.014</v>
+        <v>0.01385</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0191555871418843</v>
+        <v>0.0191503665587843</v>
       </c>
       <c r="H36" t="n">
         <v>0.083</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0474</v>
+        <v>0.04704</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3310,7 +3310,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03434</v>
+        <v>0.03424</v>
       </c>
       <c r="N36" t="n">
         <v>0.0413</v>
@@ -3370,16 +3370,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.014</v>
+        <v>0.01385</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0191555871418843</v>
+        <v>0.0191503665587843</v>
       </c>
       <c r="H37" t="n">
         <v>0.083</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0474</v>
+        <v>0.04704</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3387,7 +3387,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03434</v>
+        <v>0.03424</v>
       </c>
       <c r="N37" t="n">
         <v>0.0413</v>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0038304769018073</v>
+        <v>0.0038468979145865</v>
       </c>
       <c r="H41" t="n">
         <v>0.0352393149189957</v>
@@ -3708,13 +3708,13 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00131</v>
+        <v>0.00135</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00507</v>
+        <v>0.00502</v>
       </c>
       <c r="N41" t="n">
-        <v>0.00711</v>
+        <v>0.00705</v>
       </c>
       <c r="O41" t="n">
         <v>1820825.9</v>
@@ -3775,10 +3775,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0038304769018073</v>
+        <v>0.0038468979145865</v>
       </c>
       <c r="H42" t="n">
         <v>0.0352393149189957</v>
@@ -3789,13 +3789,13 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00131</v>
+        <v>0.00135</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00507</v>
+        <v>0.00502</v>
       </c>
       <c r="N42" t="n">
-        <v>0.00711</v>
+        <v>0.00705</v>
       </c>
       <c r="O42" t="n">
         <v>1820825.9</v>
@@ -3859,7 +3859,7 @@
         <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0175870841082058</v>
+        <v>0.0176268240146875</v>
       </c>
       <c r="H43" t="n">
         <v>0.266</v>
@@ -3870,7 +3870,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00192</v>
+        <v>0.002</v>
       </c>
       <c r="M43" t="n">
         <v>0.02576</v>
@@ -3940,7 +3940,7 @@
         <v>0.008</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0175870841082058</v>
+        <v>0.0176268240146875</v>
       </c>
       <c r="H44" t="n">
         <v>0.266</v>
@@ -3951,7 +3951,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00192</v>
+        <v>0.002</v>
       </c>
       <c r="M44" t="n">
         <v>0.02576</v>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.014</v>
+        <v>0.01385</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0275054391141955</v>
+        <v>0.0275137499081372</v>
       </c>
       <c r="H45" t="n">
         <v>0.327</v>
@@ -4028,13 +4028,13 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.0094</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03736</v>
+        <v>0.03722</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04756</v>
+        <v>0.04722</v>
       </c>
       <c r="O45" t="n">
         <v>1820825.9</v>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.014</v>
+        <v>0.01385</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0275054391141955</v>
+        <v>0.0275137499081372</v>
       </c>
       <c r="H46" t="n">
         <v>0.327</v>
@@ -4105,13 +4105,13 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.0094</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>0.03736</v>
+        <v>0.03722</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04756</v>
+        <v>0.04722</v>
       </c>
       <c r="O46" t="n">
         <v>1820825.9</v>
@@ -4415,27 +4415,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.00182</v>
+        <v>0.00187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0034143729339566</v>
+        <v>0.0034282573315084</v>
       </c>
       <c r="H50" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01032</v>
+        <v>0.01028</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.00243</v>
+        <v>0.00247</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00449</v>
+        <v>0.00448</v>
       </c>
       <c r="N50" t="n">
-        <v>0.00602</v>
+        <v>0.0059</v>
       </c>
       <c r="O50" t="n">
         <v>1820825.9</v>
@@ -4496,27 +4496,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00182</v>
+        <v>0.00187</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0034143729339566</v>
+        <v>0.0034282573315084</v>
       </c>
       <c r="H51" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01032</v>
+        <v>0.01028</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.00243</v>
+        <v>0.00247</v>
       </c>
       <c r="M51" t="n">
-        <v>0.00449</v>
+        <v>0.00448</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00602</v>
+        <v>0.0059</v>
       </c>
       <c r="O51" t="n">
         <v>1820825.9</v>
@@ -4580,7 +4580,7 @@
         <v>0.008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0169131467149073</v>
+        <v>0.0169523317623252</v>
       </c>
       <c r="H52" t="n">
         <v>0.266</v>
@@ -4591,7 +4591,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.00201</v>
+        <v>0.00214</v>
       </c>
       <c r="M52" t="n">
         <v>0.02471</v>
@@ -4661,7 +4661,7 @@
         <v>0.008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0169131467149073</v>
+        <v>0.0169523317623252</v>
       </c>
       <c r="H53" t="n">
         <v>0.266</v>
@@ -4672,7 +4672,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.00201</v>
+        <v>0.00214</v>
       </c>
       <c r="M53" t="n">
         <v>0.02471</v>
@@ -4738,7 +4738,7 @@
         <v>0.014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0255665454831249</v>
+        <v>0.0255782060618463</v>
       </c>
       <c r="H54" t="n">
         <v>0.327</v>
@@ -4815,7 +4815,7 @@
         <v>0.014</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0255665454831249</v>
+        <v>0.0255782060618463</v>
       </c>
       <c r="H55" t="n">
         <v>0.327</v>
@@ -5139,24 +5139,24 @@
         <v>0.00253</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0036925380051719</v>
+        <v>0.0036945995627005</v>
       </c>
       <c r="H59" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01032</v>
+        <v>0.01028</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.00263</v>
+        <v>0.00268</v>
       </c>
       <c r="M59" t="n">
-        <v>0.00468</v>
+        <v>0.00467</v>
       </c>
       <c r="N59" t="n">
-        <v>0.00602</v>
+        <v>0.0059</v>
       </c>
       <c r="O59" t="n">
         <v>1820825.9</v>
@@ -5220,24 +5220,24 @@
         <v>0.00253</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0036925380051719</v>
+        <v>0.0036945995627005</v>
       </c>
       <c r="H60" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01032</v>
+        <v>0.01028</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00263</v>
+        <v>0.00268</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00468</v>
+        <v>0.00467</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00602</v>
+        <v>0.0059</v>
       </c>
       <c r="O60" t="n">
         <v>1820825.9</v>
@@ -5301,7 +5301,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0171413259748778</v>
+        <v>0.0171611455054251</v>
       </c>
       <c r="H61" t="n">
         <v>0.266</v>
@@ -5382,7 +5382,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0171413259748778</v>
+        <v>0.0171611455054251</v>
       </c>
       <c r="H62" t="n">
         <v>0.266</v>
@@ -5459,7 +5459,7 @@
         <v>0.014</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0250028690858169</v>
+        <v>0.0249866095449514</v>
       </c>
       <c r="H63" t="n">
         <v>0.327</v>
@@ -5470,7 +5470,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.01135</v>
+        <v>0.01147</v>
       </c>
       <c r="M63" t="n">
         <v>0.03071</v>
@@ -5536,7 +5536,7 @@
         <v>0.014</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0250028690858169</v>
+        <v>0.0249866095449514</v>
       </c>
       <c r="H64" t="n">
         <v>0.327</v>
@@ -5547,7 +5547,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.01135</v>
+        <v>0.01147</v>
       </c>
       <c r="M64" t="n">
         <v>0.03071</v>
@@ -5860,13 +5860,13 @@
         <v>0.00259</v>
       </c>
       <c r="G68" t="n">
-        <v>0.003808263468342</v>
+        <v>0.0037995723818925</v>
       </c>
       <c r="H68" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01121</v>
+        <v>0.01118</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -5877,7 +5877,7 @@
         <v>0.00473</v>
       </c>
       <c r="N68" t="n">
-        <v>0.00608</v>
+        <v>0.00597</v>
       </c>
       <c r="O68" t="n">
         <v>1820825.9</v>
@@ -5941,13 +5941,13 @@
         <v>0.00259</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003808263468342</v>
+        <v>0.0037995723818925</v>
       </c>
       <c r="H69" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01121</v>
+        <v>0.01118</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -5958,7 +5958,7 @@
         <v>0.00473</v>
       </c>
       <c r="N69" t="n">
-        <v>0.00608</v>
+        <v>0.00597</v>
       </c>
       <c r="O69" t="n">
         <v>1820825.9</v>
@@ -6022,7 +6022,7 @@
         <v>0.008</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0161293934185987</v>
+        <v>0.0161467302978538</v>
       </c>
       <c r="H70" t="n">
         <v>0.266</v>
@@ -6103,7 +6103,7 @@
         <v>0.008</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0161293934185987</v>
+        <v>0.0161467302978538</v>
       </c>
       <c r="H71" t="n">
         <v>0.266</v>
@@ -6180,7 +6180,7 @@
         <v>0.014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0240707758970709</v>
+        <v>0.024050253880003</v>
       </c>
       <c r="H72" t="n">
         <v>0.327</v>
@@ -6191,7 +6191,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.01168</v>
+        <v>0.01173</v>
       </c>
       <c r="M72" t="n">
         <v>0.02387</v>
@@ -6257,7 +6257,7 @@
         <v>0.014</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0240707758970709</v>
+        <v>0.024050253880003</v>
       </c>
       <c r="H73" t="n">
         <v>0.327</v>
@@ -6268,7 +6268,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.01168</v>
+        <v>0.01173</v>
       </c>
       <c r="M73" t="n">
         <v>0.02387</v>
@@ -6303,6 +6303,727 @@
         </is>
       </c>
       <c r="U73" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.29719976664385</v>
+      </c>
+      <c r="H74" t="n">
+        <v>50</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17.475</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>7</v>
+      </c>
+      <c r="M74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0160392156862745</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.02483</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0160392156862745</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.02483</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0035611062287959</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0352393149189957</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.01054</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.00598</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0035611062287959</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0352393149189957</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.01054</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.00598</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0162102447375745</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.02066</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02594</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0162102447375745</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.02066</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.02594</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0239501941435317</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.02683</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.03542</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Mangatepopo at d/s Intake</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0239501941435317</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.02683</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.03542</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1820825.9</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/state_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
+++ b/state_results/Rivers/MangatepopoatdsIntake_106f8d2943.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -109,6 +109,18 @@
     <t>Soluble Inorganic Nitrogen (Median)</t>
   </si>
   <si>
+    <t>Total Nitrogen (95th Percentile)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen (Median)</t>
+  </si>
+  <si>
+    <t>Total Phosphorus (95th Percentile)</t>
+  </si>
+  <si>
+    <t>Total Phosphorus (Median)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -530,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +624,13 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2.4</v>
@@ -630,7 +645,7 @@
         <v>14.75</v>
       </c>
       <c r="L2">
-        <v>2.225</v>
+        <v>1.85</v>
       </c>
       <c r="M2">
         <v>9.074999999999999</v>
@@ -645,19 +660,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -668,19 +683,19 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0.0115</v>
       </c>
       <c r="G3">
-        <v>0.0162112451297658</v>
+        <v>0.016237087599741</v>
       </c>
       <c r="H3">
         <v>0.135</v>
@@ -689,7 +704,7 @@
         <v>0.0318</v>
       </c>
       <c r="L3">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="M3">
         <v>0.02264</v>
@@ -704,19 +719,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -727,19 +742,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0.0115</v>
       </c>
       <c r="G4">
-        <v>0.0162112451297658</v>
+        <v>0.016237087599741</v>
       </c>
       <c r="H4">
         <v>0.135</v>
@@ -748,7 +763,7 @@
         <v>0.0318</v>
       </c>
       <c r="L4">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="M4">
         <v>0.02264</v>
@@ -763,19 +778,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -786,19 +801,19 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0.00068</v>
       </c>
       <c r="G5">
-        <v>0.0033141019019625</v>
+        <v>0.0032983276849764</v>
       </c>
       <c r="H5">
         <v>0.0295616230399037</v>
@@ -807,7 +822,7 @@
         <v>0.013</v>
       </c>
       <c r="L5">
-        <v>0.00054</v>
+        <v>0.00059</v>
       </c>
       <c r="M5">
         <v>0.00596</v>
@@ -822,19 +837,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -845,19 +860,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>0.00068</v>
       </c>
       <c r="G6">
-        <v>0.0033141019019625</v>
+        <v>0.0032983276849764</v>
       </c>
       <c r="H6">
         <v>0.0295616230399037</v>
@@ -866,7 +881,7 @@
         <v>0.013</v>
       </c>
       <c r="L6">
-        <v>0.00054</v>
+        <v>0.00059</v>
       </c>
       <c r="M6">
         <v>0.00596</v>
@@ -881,19 +896,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -904,19 +919,19 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0.0105</v>
       </c>
       <c r="G7">
-        <v>0.012006391296313</v>
+        <v>0.0119100434977698</v>
       </c>
       <c r="H7">
         <v>0.053</v>
@@ -925,7 +940,7 @@
         <v>0.02995</v>
       </c>
       <c r="L7">
-        <v>0.002</v>
+        <v>0.0034</v>
       </c>
       <c r="M7">
         <v>0.02145</v>
@@ -940,19 +955,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -963,19 +978,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0.0105</v>
       </c>
       <c r="G8">
-        <v>0.012006391296313</v>
+        <v>0.0119100434977698</v>
       </c>
       <c r="H8">
         <v>0.053</v>
@@ -984,7 +999,7 @@
         <v>0.02995</v>
       </c>
       <c r="L8">
-        <v>0.002</v>
+        <v>0.0034</v>
       </c>
       <c r="M8">
         <v>0.02145</v>
@@ -999,19 +1014,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1022,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0.017</v>
       </c>
       <c r="G9">
-        <v>0.0217485225255665</v>
+        <v>0.0214425853324131</v>
       </c>
       <c r="H9">
         <v>0.151</v>
@@ -1040,7 +1055,7 @@
         <v>0.05596</v>
       </c>
       <c r="L9">
-        <v>0.008999999999999999</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="M9">
         <v>0.03</v>
@@ -1055,19 +1070,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1078,16 +1093,16 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>0.017</v>
       </c>
       <c r="G10">
-        <v>0.0217485225255665</v>
+        <v>0.0214425853324131</v>
       </c>
       <c r="H10">
         <v>0.151</v>
@@ -1096,7 +1111,7 @@
         <v>0.05596</v>
       </c>
       <c r="L10">
-        <v>0.008999999999999999</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="M10">
         <v>0.03</v>
@@ -1111,19 +1126,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1134,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>3.2</v>
@@ -1155,7 +1170,7 @@
         <v>14.75</v>
       </c>
       <c r="L11">
-        <v>2.225</v>
+        <v>2.25</v>
       </c>
       <c r="M11">
         <v>8.65</v>
@@ -1170,19 +1185,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1193,19 +1208,19 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>0.016</v>
       </c>
       <c r="G12">
-        <v>0.017935918761541</v>
+        <v>0.0179565457269193</v>
       </c>
       <c r="H12">
         <v>0.135</v>
@@ -1214,7 +1229,7 @@
         <v>0.0315</v>
       </c>
       <c r="L12">
-        <v>0.017</v>
+        <v>0.0165</v>
       </c>
       <c r="M12">
         <v>0.024</v>
@@ -1229,19 +1244,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1252,19 +1267,19 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>0.016</v>
       </c>
       <c r="G13">
-        <v>0.017935918761541</v>
+        <v>0.0179565457269193</v>
       </c>
       <c r="H13">
         <v>0.135</v>
@@ -1273,7 +1288,7 @@
         <v>0.0315</v>
       </c>
       <c r="L13">
-        <v>0.017</v>
+        <v>0.0165</v>
       </c>
       <c r="M13">
         <v>0.024</v>
@@ -1288,19 +1303,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1311,19 +1326,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>0.00081</v>
+        <v>0.00077</v>
       </c>
       <c r="G14">
-        <v>0.0028534788962512</v>
+        <v>0.0028226857072119</v>
       </c>
       <c r="H14">
         <v>0.0295616230399037</v>
@@ -1332,7 +1347,7 @@
         <v>0.01222</v>
       </c>
       <c r="L14">
-        <v>0.00067</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M14">
         <v>0.00502</v>
@@ -1347,19 +1362,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1370,19 +1385,19 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>0.00081</v>
+        <v>0.00077</v>
       </c>
       <c r="G15">
-        <v>0.0028534788962512</v>
+        <v>0.0028226857072119</v>
       </c>
       <c r="H15">
         <v>0.0295616230399037</v>
@@ -1391,7 +1406,7 @@
         <v>0.01222</v>
       </c>
       <c r="L15">
-        <v>0.00067</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M15">
         <v>0.00502</v>
@@ -1406,19 +1421,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1429,19 +1444,19 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0.00705</v>
       </c>
       <c r="G16">
-        <v>0.0109716630256947</v>
+        <v>0.0108975662407834</v>
       </c>
       <c r="H16">
         <v>0.053</v>
@@ -1450,7 +1465,7 @@
         <v>0.0315</v>
       </c>
       <c r="L16">
-        <v>0.002</v>
+        <v>0.00216</v>
       </c>
       <c r="M16">
         <v>0.02079</v>
@@ -1465,19 +1480,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1488,19 +1503,19 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0.00705</v>
       </c>
       <c r="G17">
-        <v>0.0109716630256947</v>
+        <v>0.0108975662407834</v>
       </c>
       <c r="H17">
         <v>0.053</v>
@@ -1509,7 +1524,7 @@
         <v>0.0315</v>
       </c>
       <c r="L17">
-        <v>0.002</v>
+        <v>0.00216</v>
       </c>
       <c r="M17">
         <v>0.02079</v>
@@ -1524,19 +1539,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1547,16 +1562,16 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0.0135</v>
       </c>
       <c r="G18">
-        <v>0.0207191647733047</v>
+        <v>0.0203649685208453</v>
       </c>
       <c r="H18">
         <v>0.151</v>
@@ -1580,19 +1595,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1603,16 +1618,16 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>0.0135</v>
       </c>
       <c r="G19">
-        <v>0.0207191647733047</v>
+        <v>0.0203649685208453</v>
       </c>
       <c r="H19">
         <v>0.151</v>
@@ -1636,19 +1651,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1659,13 +1674,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1695,19 +1710,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1718,19 +1733,19 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>0.018</v>
       </c>
       <c r="G21">
-        <v>0.0200048697561047</v>
+        <v>0.0200127739555358</v>
       </c>
       <c r="H21">
         <v>0.135</v>
@@ -1739,7 +1754,7 @@
         <v>0.0355</v>
       </c>
       <c r="L21">
-        <v>0.0205</v>
+        <v>0.018</v>
       </c>
       <c r="M21">
         <v>0.024</v>
@@ -1754,19 +1769,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1777,19 +1792,19 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>0.018</v>
       </c>
       <c r="G22">
-        <v>0.0200048697561047</v>
+        <v>0.0200127739555358</v>
       </c>
       <c r="H22">
         <v>0.135</v>
@@ -1798,7 +1813,7 @@
         <v>0.0355</v>
       </c>
       <c r="L22">
-        <v>0.0205</v>
+        <v>0.018</v>
       </c>
       <c r="M22">
         <v>0.024</v>
@@ -1813,19 +1828,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1836,19 +1851,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>0.0011</v>
+        <v>0.00103</v>
       </c>
       <c r="G23">
-        <v>0.0024270979952366</v>
+        <v>0.0023852048906095</v>
       </c>
       <c r="H23">
         <v>0.0295616230399037</v>
@@ -1857,10 +1872,10 @@
         <v>0.008880000000000001</v>
       </c>
       <c r="L23">
-        <v>0.0011</v>
+        <v>0.00107</v>
       </c>
       <c r="M23">
-        <v>0.00315</v>
+        <v>0.0031</v>
       </c>
       <c r="N23">
         <v>0.00533</v>
@@ -1872,19 +1887,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1895,19 +1910,19 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F24">
-        <v>0.0011</v>
+        <v>0.00103</v>
       </c>
       <c r="G24">
-        <v>0.0024270979952366</v>
+        <v>0.0023852048906095</v>
       </c>
       <c r="H24">
         <v>0.0295616230399037</v>
@@ -1916,10 +1931,10 @@
         <v>0.008880000000000001</v>
       </c>
       <c r="L24">
-        <v>0.0011</v>
+        <v>0.00107</v>
       </c>
       <c r="M24">
-        <v>0.00315</v>
+        <v>0.0031</v>
       </c>
       <c r="N24">
         <v>0.00533</v>
@@ -1931,19 +1946,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1954,19 +1969,19 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>0.008500000000000001</v>
       </c>
       <c r="G25">
-        <v>0.0119266184486079</v>
+        <v>0.0118548862360508</v>
       </c>
       <c r="H25">
         <v>0.053</v>
@@ -1975,7 +1990,7 @@
         <v>0.0325</v>
       </c>
       <c r="L25">
-        <v>0.002</v>
+        <v>0.00221</v>
       </c>
       <c r="M25">
         <v>0.02239</v>
@@ -1990,19 +2005,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2013,19 +2028,19 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>0.008500000000000001</v>
       </c>
       <c r="G26">
-        <v>0.0119266184486079</v>
+        <v>0.0118548862360508</v>
       </c>
       <c r="H26">
         <v>0.053</v>
@@ -2034,7 +2049,7 @@
         <v>0.0325</v>
       </c>
       <c r="L26">
-        <v>0.002</v>
+        <v>0.00221</v>
       </c>
       <c r="M26">
         <v>0.02239</v>
@@ -2049,19 +2064,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2072,16 +2087,16 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>0.0135</v>
       </c>
       <c r="G27">
-        <v>0.0190169599136941</v>
+        <v>0.0186546950510791</v>
       </c>
       <c r="H27">
         <v>0.083</v>
@@ -2105,19 +2120,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2128,16 +2143,16 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>0.0135</v>
       </c>
       <c r="G28">
-        <v>0.0190169599136941</v>
+        <v>0.0186546950510791</v>
       </c>
       <c r="H28">
         <v>0.083</v>
@@ -2161,19 +2176,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2184,13 +2199,13 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>3.35</v>
@@ -2220,19 +2235,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2243,13 +2258,13 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>0.018</v>
@@ -2264,7 +2279,7 @@
         <v>0.0335</v>
       </c>
       <c r="L30">
-        <v>0.0205</v>
+        <v>0.018</v>
       </c>
       <c r="M30">
         <v>0.02434</v>
@@ -2279,19 +2294,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2302,13 +2317,13 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>0.018</v>
@@ -2323,7 +2338,7 @@
         <v>0.0335</v>
       </c>
       <c r="L31">
-        <v>0.0205</v>
+        <v>0.018</v>
       </c>
       <c r="M31">
         <v>0.02434</v>
@@ -2338,19 +2353,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2361,19 +2376,19 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F32">
-        <v>0.0013</v>
+        <v>0.00124</v>
       </c>
       <c r="G32">
-        <v>0.0026997970264244</v>
+        <v>0.0026493348776691</v>
       </c>
       <c r="H32">
         <v>0.0295616230399037</v>
@@ -2382,10 +2397,10 @@
         <v>0.01019</v>
       </c>
       <c r="L32">
-        <v>0.00125</v>
+        <v>0.00121</v>
       </c>
       <c r="M32">
-        <v>0.00331</v>
+        <v>0.00327</v>
       </c>
       <c r="N32">
         <v>0.00596</v>
@@ -2397,19 +2412,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2420,19 +2435,19 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>0.0013</v>
+        <v>0.00124</v>
       </c>
       <c r="G33">
-        <v>0.0026997970264244</v>
+        <v>0.0026493348776691</v>
       </c>
       <c r="H33">
         <v>0.0295616230399037</v>
@@ -2441,10 +2456,10 @@
         <v>0.01019</v>
       </c>
       <c r="L33">
-        <v>0.00125</v>
+        <v>0.00121</v>
       </c>
       <c r="M33">
-        <v>0.00331</v>
+        <v>0.00327</v>
       </c>
       <c r="N33">
         <v>0.00596</v>
@@ -2456,19 +2471,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2479,19 +2494,19 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>0.008500000000000001</v>
       </c>
       <c r="G34">
-        <v>0.0115895230607599</v>
+        <v>0.0115415244617302</v>
       </c>
       <c r="H34">
         <v>0.034</v>
@@ -2500,7 +2515,7 @@
         <v>0.0321</v>
       </c>
       <c r="L34">
-        <v>0.002</v>
+        <v>0.00207</v>
       </c>
       <c r="M34">
         <v>0.02407</v>
@@ -2515,19 +2530,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q34" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2538,19 +2553,19 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>0.008500000000000001</v>
       </c>
       <c r="G35">
-        <v>0.0115895230607599</v>
+        <v>0.0115415244617302</v>
       </c>
       <c r="H35">
         <v>0.034</v>
@@ -2559,7 +2574,7 @@
         <v>0.0321</v>
       </c>
       <c r="L35">
-        <v>0.002</v>
+        <v>0.00207</v>
       </c>
       <c r="M35">
         <v>0.02407</v>
@@ -2574,19 +2589,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2597,16 +2612,16 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>0.01385</v>
       </c>
       <c r="G36">
-        <v>0.0191503665587843</v>
+        <v>0.0189892021471822</v>
       </c>
       <c r="H36">
         <v>0.083</v>
@@ -2615,7 +2630,7 @@
         <v>0.04704</v>
       </c>
       <c r="L36">
-        <v>0.008999999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M36">
         <v>0.03424</v>
@@ -2630,19 +2645,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2653,16 +2668,16 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>0.01385</v>
       </c>
       <c r="G37">
-        <v>0.0191503665587843</v>
+        <v>0.0189892021471822</v>
       </c>
       <c r="H37">
         <v>0.083</v>
@@ -2671,7 +2686,7 @@
         <v>0.04704</v>
       </c>
       <c r="L37">
-        <v>0.008999999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M37">
         <v>0.03424</v>
@@ -2686,19 +2701,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2709,13 +2724,13 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>3.65</v>
@@ -2730,7 +2745,7 @@
         <v>15.35</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -2745,19 +2760,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2768,13 +2783,13 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>0.017</v>
@@ -2789,7 +2804,7 @@
         <v>0.0308</v>
       </c>
       <c r="L39">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="M39">
         <v>0.02208</v>
@@ -2804,19 +2819,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q39" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2827,13 +2842,13 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>0.017</v>
@@ -2848,7 +2863,7 @@
         <v>0.0308</v>
       </c>
       <c r="L40">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="M40">
         <v>0.02208</v>
@@ -2863,19 +2878,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2886,19 +2901,19 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F41">
-        <v>0.00181</v>
+        <v>0.00172</v>
       </c>
       <c r="G41">
-        <v>0.0038468979145865</v>
+        <v>0.0037980782572146</v>
       </c>
       <c r="H41">
         <v>0.0352393149189957</v>
@@ -2907,13 +2922,13 @@
         <v>0.01906</v>
       </c>
       <c r="L41">
-        <v>0.00135</v>
+        <v>0.00128</v>
       </c>
       <c r="M41">
-        <v>0.00502</v>
+        <v>0.00504</v>
       </c>
       <c r="N41">
-        <v>0.00705</v>
+        <v>0.00708</v>
       </c>
       <c r="O41">
         <v>1820825.9</v>
@@ -2922,19 +2937,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2945,19 +2960,19 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F42">
-        <v>0.00181</v>
+        <v>0.00172</v>
       </c>
       <c r="G42">
-        <v>0.0038468979145865</v>
+        <v>0.0037980782572146</v>
       </c>
       <c r="H42">
         <v>0.0352393149189957</v>
@@ -2966,13 +2981,13 @@
         <v>0.01906</v>
       </c>
       <c r="L42">
-        <v>0.00135</v>
+        <v>0.00128</v>
       </c>
       <c r="M42">
-        <v>0.00502</v>
+        <v>0.00504</v>
       </c>
       <c r="N42">
-        <v>0.00705</v>
+        <v>0.00708</v>
       </c>
       <c r="O42">
         <v>1820825.9</v>
@@ -2981,19 +2996,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3004,19 +3019,19 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>0.008</v>
       </c>
       <c r="G43">
-        <v>0.0176268240146875</v>
+        <v>0.0176562165227336</v>
       </c>
       <c r="H43">
         <v>0.266</v>
@@ -3025,7 +3040,7 @@
         <v>0.0334</v>
       </c>
       <c r="L43">
-        <v>0.002</v>
+        <v>0.00228</v>
       </c>
       <c r="M43">
         <v>0.02576</v>
@@ -3040,19 +3055,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3063,19 +3078,19 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>0.008</v>
       </c>
       <c r="G44">
-        <v>0.0176268240146875</v>
+        <v>0.0176562165227336</v>
       </c>
       <c r="H44">
         <v>0.266</v>
@@ -3084,7 +3099,7 @@
         <v>0.0334</v>
       </c>
       <c r="L44">
-        <v>0.002</v>
+        <v>0.00228</v>
       </c>
       <c r="M44">
         <v>0.02576</v>
@@ -3099,19 +3114,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q44" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R44" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3122,16 +3137,16 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>0.01385</v>
       </c>
       <c r="G45">
-        <v>0.0275137499081372</v>
+        <v>0.027272883393645</v>
       </c>
       <c r="H45">
         <v>0.327</v>
@@ -3140,7 +3155,7 @@
         <v>0.0638</v>
       </c>
       <c r="L45">
-        <v>0.009549999999999999</v>
+        <v>0.01065</v>
       </c>
       <c r="M45">
         <v>0.03722</v>
@@ -3155,19 +3170,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3178,16 +3193,16 @@
         <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>0.01385</v>
       </c>
       <c r="G46">
-        <v>0.0275137499081372</v>
+        <v>0.027272883393645</v>
       </c>
       <c r="H46">
         <v>0.327</v>
@@ -3196,7 +3211,7 @@
         <v>0.0638</v>
       </c>
       <c r="L46">
-        <v>0.009549999999999999</v>
+        <v>0.01065</v>
       </c>
       <c r="M46">
         <v>0.03722</v>
@@ -3211,19 +3226,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3234,13 +3249,13 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47">
         <v>3.9</v>
@@ -3255,7 +3270,7 @@
         <v>15.45</v>
       </c>
       <c r="L47">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
         <v>10</v>
@@ -3270,19 +3285,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3293,13 +3308,13 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>0.015</v>
@@ -3314,7 +3329,7 @@
         <v>0.0249</v>
       </c>
       <c r="L48">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="M48">
         <v>0.02053</v>
@@ -3329,19 +3344,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q48" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3352,13 +3367,13 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F49">
         <v>0.015</v>
@@ -3373,7 +3388,7 @@
         <v>0.0249</v>
       </c>
       <c r="L49">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="M49">
         <v>0.02053</v>
@@ -3388,19 +3403,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3411,34 +3426,34 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F50">
-        <v>0.00187</v>
+        <v>0.00177</v>
       </c>
       <c r="G50">
-        <v>0.0034282573315084</v>
+        <v>0.0033849179174457</v>
       </c>
       <c r="H50">
         <v>0.0352393149189957</v>
       </c>
       <c r="I50">
-        <v>0.01028</v>
+        <v>0.0103</v>
       </c>
       <c r="L50">
-        <v>0.00247</v>
+        <v>0.0024</v>
       </c>
       <c r="M50">
-        <v>0.00448</v>
+        <v>0.00446</v>
       </c>
       <c r="N50">
-        <v>0.0059</v>
+        <v>0.00597</v>
       </c>
       <c r="O50">
         <v>1820825.9</v>
@@ -3447,19 +3462,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3470,34 +3485,34 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F51">
-        <v>0.00187</v>
+        <v>0.00177</v>
       </c>
       <c r="G51">
-        <v>0.0034282573315084</v>
+        <v>0.0033849179174457</v>
       </c>
       <c r="H51">
         <v>0.0352393149189957</v>
       </c>
       <c r="I51">
-        <v>0.01028</v>
+        <v>0.0103</v>
       </c>
       <c r="L51">
-        <v>0.00247</v>
+        <v>0.0024</v>
       </c>
       <c r="M51">
-        <v>0.00448</v>
+        <v>0.00446</v>
       </c>
       <c r="N51">
-        <v>0.0059</v>
+        <v>0.00597</v>
       </c>
       <c r="O51">
         <v>1820825.9</v>
@@ -3506,19 +3521,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q51" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3529,19 +3544,19 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F52">
         <v>0.008</v>
       </c>
       <c r="G52">
-        <v>0.0169523317623252</v>
+        <v>0.017020837007114</v>
       </c>
       <c r="H52">
         <v>0.266</v>
@@ -3550,7 +3565,7 @@
         <v>0.03345</v>
       </c>
       <c r="L52">
-        <v>0.00214</v>
+        <v>0.00255</v>
       </c>
       <c r="M52">
         <v>0.02471</v>
@@ -3565,19 +3580,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q52" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3588,19 +3603,19 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>0.008</v>
       </c>
       <c r="G53">
-        <v>0.0169523317623252</v>
+        <v>0.017020837007114</v>
       </c>
       <c r="H53">
         <v>0.266</v>
@@ -3609,7 +3624,7 @@
         <v>0.03345</v>
       </c>
       <c r="L53">
-        <v>0.00214</v>
+        <v>0.00255</v>
       </c>
       <c r="M53">
         <v>0.02471</v>
@@ -3624,19 +3639,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q53" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3647,31 +3662,31 @@
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>0.014</v>
       </c>
       <c r="G54">
-        <v>0.0255782060618463</v>
+        <v>0.0252806456856837</v>
       </c>
       <c r="H54">
         <v>0.327</v>
       </c>
       <c r="I54">
-        <v>0.05145</v>
+        <v>0.0477</v>
       </c>
       <c r="L54">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M54">
-        <v>0.03453</v>
+        <v>0.034</v>
       </c>
       <c r="N54">
-        <v>0.04476</v>
+        <v>0.04344</v>
       </c>
       <c r="O54">
         <v>1820825.9</v>
@@ -3680,19 +3695,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R54" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3703,31 +3718,31 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F55">
         <v>0.014</v>
       </c>
       <c r="G55">
-        <v>0.0255782060618463</v>
+        <v>0.0252806456856837</v>
       </c>
       <c r="H55">
         <v>0.327</v>
       </c>
       <c r="I55">
-        <v>0.05145</v>
+        <v>0.0477</v>
       </c>
       <c r="L55">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M55">
-        <v>0.03453</v>
+        <v>0.034</v>
       </c>
       <c r="N55">
-        <v>0.04476</v>
+        <v>0.04344</v>
       </c>
       <c r="O55">
         <v>1820825.9</v>
@@ -3736,19 +3751,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3759,13 +3774,13 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -3780,7 +3795,7 @@
         <v>17.4</v>
       </c>
       <c r="L56">
-        <v>5.5</v>
+        <v>4.35</v>
       </c>
       <c r="M56">
         <v>12.5</v>
@@ -3795,19 +3810,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q56" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R56" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3818,13 +3833,13 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>0.014</v>
@@ -3854,19 +3869,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q57" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R57" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3877,13 +3892,13 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <v>0.014</v>
@@ -3913,19 +3928,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q58" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3936,34 +3951,34 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F59">
         <v>0.00253</v>
       </c>
       <c r="G59">
-        <v>0.0036945995627005</v>
+        <v>0.0036762331692222</v>
       </c>
       <c r="H59">
         <v>0.0352393149189957</v>
       </c>
       <c r="I59">
-        <v>0.01028</v>
+        <v>0.0103</v>
       </c>
       <c r="L59">
-        <v>0.00268</v>
+        <v>0.0027</v>
       </c>
       <c r="M59">
         <v>0.00467</v>
       </c>
       <c r="N59">
-        <v>0.0059</v>
+        <v>0.00597</v>
       </c>
       <c r="O59">
         <v>1820825.9</v>
@@ -3972,19 +3987,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q59" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S59" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T59" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U59" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -3995,34 +4010,34 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F60">
         <v>0.00253</v>
       </c>
       <c r="G60">
-        <v>0.0036945995627005</v>
+        <v>0.0036762331692222</v>
       </c>
       <c r="H60">
         <v>0.0352393149189957</v>
       </c>
       <c r="I60">
-        <v>0.01028</v>
+        <v>0.0103</v>
       </c>
       <c r="L60">
-        <v>0.00268</v>
+        <v>0.0027</v>
       </c>
       <c r="M60">
         <v>0.00467</v>
       </c>
       <c r="N60">
-        <v>0.0059</v>
+        <v>0.00597</v>
       </c>
       <c r="O60">
         <v>1820825.9</v>
@@ -4031,19 +4046,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q60" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S60" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T60" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4054,19 +4069,19 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F61">
         <v>0.008999999999999999</v>
       </c>
       <c r="G61">
-        <v>0.0171611455054251</v>
+        <v>0.0172035533787811</v>
       </c>
       <c r="H61">
         <v>0.266</v>
@@ -4075,7 +4090,7 @@
         <v>0.0329</v>
       </c>
       <c r="L61">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="M61">
         <v>0.021</v>
@@ -4090,19 +4105,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q61" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4113,19 +4128,19 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F62">
         <v>0.008999999999999999</v>
       </c>
       <c r="G62">
-        <v>0.0171611455054251</v>
+        <v>0.0172035533787811</v>
       </c>
       <c r="H62">
         <v>0.266</v>
@@ -4134,7 +4149,7 @@
         <v>0.0329</v>
       </c>
       <c r="L62">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="M62">
         <v>0.021</v>
@@ -4149,19 +4164,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q62" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R62" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4172,31 +4187,31 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F63">
         <v>0.014</v>
       </c>
       <c r="G63">
-        <v>0.0249866095449514</v>
+        <v>0.0242298630009801</v>
       </c>
       <c r="H63">
         <v>0.327</v>
       </c>
       <c r="I63">
-        <v>0.05145</v>
+        <v>0.0477</v>
       </c>
       <c r="L63">
-        <v>0.01147</v>
+        <v>0.011</v>
       </c>
       <c r="M63">
         <v>0.03071</v>
       </c>
       <c r="N63">
-        <v>0.04086</v>
+        <v>0.03954</v>
       </c>
       <c r="O63">
         <v>1820825.9</v>
@@ -4205,19 +4220,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q63" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T63" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4228,31 +4243,31 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F64">
         <v>0.014</v>
       </c>
       <c r="G64">
-        <v>0.0249866095449514</v>
+        <v>0.0242298630009801</v>
       </c>
       <c r="H64">
         <v>0.327</v>
       </c>
       <c r="I64">
-        <v>0.05145</v>
+        <v>0.0477</v>
       </c>
       <c r="L64">
-        <v>0.01147</v>
+        <v>0.011</v>
       </c>
       <c r="M64">
         <v>0.03071</v>
       </c>
       <c r="N64">
-        <v>0.04086</v>
+        <v>0.03954</v>
       </c>
       <c r="O64">
         <v>1820825.9</v>
@@ -4261,19 +4276,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q64" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R64" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T64" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4284,13 +4299,13 @@
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F65">
         <v>5.5</v>
@@ -4305,7 +4320,7 @@
         <v>16.925</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="M65">
         <v>12.5</v>
@@ -4320,19 +4335,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q65" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R65" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U65" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4343,13 +4358,13 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F66">
         <v>0.013</v>
@@ -4379,19 +4394,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q66" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R66" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T66" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U66" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4402,13 +4417,13 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>0.013</v>
@@ -4438,19 +4453,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q67" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R67" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S67" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T67" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U67" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4461,34 +4476,34 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F68">
         <v>0.00259</v>
       </c>
       <c r="G68">
-        <v>0.0037995723818925</v>
+        <v>0.0038025470901408</v>
       </c>
       <c r="H68">
         <v>0.0352393149189957</v>
       </c>
       <c r="I68">
-        <v>0.01118</v>
+        <v>0.01119</v>
       </c>
       <c r="L68">
-        <v>0.00285</v>
+        <v>0.0028</v>
       </c>
       <c r="M68">
         <v>0.00473</v>
       </c>
       <c r="N68">
-        <v>0.00597</v>
+        <v>0.00603</v>
       </c>
       <c r="O68">
         <v>1820825.9</v>
@@ -4497,19 +4512,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q68" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R68" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T68" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U68" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4520,34 +4535,34 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69">
         <v>0.00259</v>
       </c>
       <c r="G69">
-        <v>0.0037995723818925</v>
+        <v>0.0038025470901408</v>
       </c>
       <c r="H69">
         <v>0.0352393149189957</v>
       </c>
       <c r="I69">
-        <v>0.01118</v>
+        <v>0.01119</v>
       </c>
       <c r="L69">
-        <v>0.00285</v>
+        <v>0.0028</v>
       </c>
       <c r="M69">
         <v>0.00473</v>
       </c>
       <c r="N69">
-        <v>0.00597</v>
+        <v>0.00603</v>
       </c>
       <c r="O69">
         <v>1820825.9</v>
@@ -4556,19 +4571,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q69" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R69" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T69" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U69" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4579,19 +4594,19 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F70">
         <v>0.008</v>
       </c>
       <c r="G70">
-        <v>0.0161467302978538</v>
+        <v>0.0161851478775491</v>
       </c>
       <c r="H70">
         <v>0.266</v>
@@ -4600,7 +4615,7 @@
         <v>0.0311</v>
       </c>
       <c r="L70">
-        <v>0.0035</v>
+        <v>0.005</v>
       </c>
       <c r="M70">
         <v>0.01587</v>
@@ -4615,19 +4630,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q70" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T70" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U70" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4638,19 +4653,19 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F71">
         <v>0.008</v>
       </c>
       <c r="G71">
-        <v>0.0161467302978538</v>
+        <v>0.0161851478775491</v>
       </c>
       <c r="H71">
         <v>0.266</v>
@@ -4659,7 +4674,7 @@
         <v>0.0311</v>
       </c>
       <c r="L71">
-        <v>0.0035</v>
+        <v>0.005</v>
       </c>
       <c r="M71">
         <v>0.01587</v>
@@ -4674,19 +4689,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q71" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U71" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4697,31 +4712,31 @@
         <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="G72">
-        <v>0.024050253880003</v>
+        <v>0.023335369217137</v>
       </c>
       <c r="H72">
         <v>0.327</v>
       </c>
       <c r="I72">
-        <v>0.0448</v>
+        <v>0.04095</v>
       </c>
       <c r="L72">
-        <v>0.01173</v>
+        <v>0.01114</v>
       </c>
       <c r="M72">
-        <v>0.02387</v>
+        <v>0.02587</v>
       </c>
       <c r="N72">
-        <v>0.03538</v>
+        <v>0.03476</v>
       </c>
       <c r="O72">
         <v>1820825.9</v>
@@ -4730,19 +4745,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q72" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R72" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U72" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4753,31 +4768,31 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F73">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="G73">
-        <v>0.024050253880003</v>
+        <v>0.023335369217137</v>
       </c>
       <c r="H73">
         <v>0.327</v>
       </c>
       <c r="I73">
-        <v>0.0448</v>
+        <v>0.04095</v>
       </c>
       <c r="L73">
-        <v>0.01173</v>
+        <v>0.01114</v>
       </c>
       <c r="M73">
-        <v>0.02387</v>
+        <v>0.02587</v>
       </c>
       <c r="N73">
-        <v>0.03538</v>
+        <v>0.03476</v>
       </c>
       <c r="O73">
         <v>1820825.9</v>
@@ -4786,19 +4801,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q73" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T73" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U73" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4809,19 +4824,19 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>5.5</v>
       </c>
       <c r="G74">
-        <v>7.29719976664385</v>
+        <v>7.29733247947516</v>
       </c>
       <c r="H74">
         <v>50</v>
@@ -4830,7 +4845,7 @@
         <v>17.475</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="M74">
         <v>12.5</v>
@@ -4845,19 +4860,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q74" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R74" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T74" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U74" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4868,13 +4883,13 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F75">
         <v>0.013</v>
@@ -4904,19 +4919,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q75" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R75" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T75" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U75" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -4927,13 +4942,13 @@
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F76">
         <v>0.013</v>
@@ -4963,19 +4978,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R76" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U76" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -4986,19 +5001,19 @@
         <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F77">
         <v>0.00217</v>
       </c>
       <c r="G77">
-        <v>0.0035611062287959</v>
+        <v>0.0035628104236093</v>
       </c>
       <c r="H77">
         <v>0.0352393149189957</v>
@@ -5007,13 +5022,13 @@
         <v>0.01054</v>
       </c>
       <c r="L77">
-        <v>0.00227</v>
+        <v>0.00207</v>
       </c>
       <c r="M77">
         <v>0.00472</v>
       </c>
       <c r="N77">
-        <v>0.00598</v>
+        <v>0.00605</v>
       </c>
       <c r="O77">
         <v>1820825.9</v>
@@ -5022,19 +5037,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q77" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T77" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U77" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5045,19 +5060,19 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F78">
         <v>0.00217</v>
       </c>
       <c r="G78">
-        <v>0.0035611062287959</v>
+        <v>0.0035628104236093</v>
       </c>
       <c r="H78">
         <v>0.0352393149189957</v>
@@ -5066,13 +5081,13 @@
         <v>0.01054</v>
       </c>
       <c r="L78">
-        <v>0.00227</v>
+        <v>0.00207</v>
       </c>
       <c r="M78">
         <v>0.00472</v>
       </c>
       <c r="N78">
-        <v>0.00598</v>
+        <v>0.00605</v>
       </c>
       <c r="O78">
         <v>1820825.9</v>
@@ -5081,19 +5096,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q78" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R78" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S78" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T78" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U78" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5104,19 +5119,19 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F79">
         <v>0.008999999999999999</v>
       </c>
       <c r="G79">
-        <v>0.0162102447375745</v>
+        <v>0.0162396228867532</v>
       </c>
       <c r="H79">
         <v>0.266</v>
@@ -5125,7 +5140,7 @@
         <v>0.0319</v>
       </c>
       <c r="L79">
-        <v>0.004</v>
+        <v>0.0055</v>
       </c>
       <c r="M79">
         <v>0.02066</v>
@@ -5140,19 +5155,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q79" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R79" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T79" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U79" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5163,19 +5178,19 @@
         <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F80">
         <v>0.008999999999999999</v>
       </c>
       <c r="G80">
-        <v>0.0162102447375745</v>
+        <v>0.0162396228867532</v>
       </c>
       <c r="H80">
         <v>0.266</v>
@@ -5184,7 +5199,7 @@
         <v>0.0319</v>
       </c>
       <c r="L80">
-        <v>0.004</v>
+        <v>0.0055</v>
       </c>
       <c r="M80">
         <v>0.02066</v>
@@ -5199,19 +5214,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q80" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R80" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S80" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U80" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5222,25 +5237,25 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F81">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="G81">
-        <v>0.0239501941435317</v>
+        <v>0.0234035176366342</v>
       </c>
       <c r="H81">
         <v>0.327</v>
       </c>
       <c r="I81">
-        <v>0.0512</v>
+        <v>0.04455</v>
       </c>
       <c r="L81">
-        <v>0.01225</v>
+        <v>0.012</v>
       </c>
       <c r="M81">
         <v>0.02683</v>
@@ -5255,19 +5270,19 @@
         <v>5674346.8</v>
       </c>
       <c r="Q81" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S81" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T81" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U81" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5278,25 +5293,25 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F82">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="G82">
-        <v>0.0239501941435317</v>
+        <v>0.0234035176366342</v>
       </c>
       <c r="H82">
         <v>0.327</v>
       </c>
       <c r="I82">
-        <v>0.0512</v>
+        <v>0.04455</v>
       </c>
       <c r="L82">
-        <v>0.01225</v>
+        <v>0.012</v>
       </c>
       <c r="M82">
         <v>0.02683</v>
@@ -5311,19 +5326,768 @@
         <v>5674346.8</v>
       </c>
       <c r="Q82" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S82" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T82" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
         <v>47</v>
       </c>
-      <c r="U82" t="s">
-        <v>52</v>
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83">
+        <v>4.05</v>
+      </c>
+      <c r="G83">
+        <v>6.34743314062704</v>
+      </c>
+      <c r="H83">
+        <v>50</v>
+      </c>
+      <c r="I83">
+        <v>16.625</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>11.49</v>
+      </c>
+      <c r="N83">
+        <v>14.13</v>
+      </c>
+      <c r="O83">
+        <v>1820825.9</v>
+      </c>
+      <c r="P83">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" t="s">
+        <v>50</v>
+      </c>
+      <c r="S83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T83" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84">
+        <v>0.013</v>
+      </c>
+      <c r="G84">
+        <v>0.0159824561403509</v>
+      </c>
+      <c r="H84">
+        <v>0.053</v>
+      </c>
+      <c r="I84">
+        <v>0.0353</v>
+      </c>
+      <c r="L84">
+        <v>0.0145</v>
+      </c>
+      <c r="M84">
+        <v>0.02424</v>
+      </c>
+      <c r="N84">
+        <v>0.02894</v>
+      </c>
+      <c r="O84">
+        <v>1820825.9</v>
+      </c>
+      <c r="P84">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>49</v>
+      </c>
+      <c r="R84" t="s">
+        <v>50</v>
+      </c>
+      <c r="S84" t="s">
+        <v>51</v>
+      </c>
+      <c r="T84" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85">
+        <v>0.013</v>
+      </c>
+      <c r="G85">
+        <v>0.0159824561403509</v>
+      </c>
+      <c r="H85">
+        <v>0.053</v>
+      </c>
+      <c r="I85">
+        <v>0.0353</v>
+      </c>
+      <c r="L85">
+        <v>0.0145</v>
+      </c>
+      <c r="M85">
+        <v>0.02424</v>
+      </c>
+      <c r="N85">
+        <v>0.02894</v>
+      </c>
+      <c r="O85">
+        <v>1820825.9</v>
+      </c>
+      <c r="P85">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>49</v>
+      </c>
+      <c r="R85" t="s">
+        <v>50</v>
+      </c>
+      <c r="S85" t="s">
+        <v>51</v>
+      </c>
+      <c r="T85" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86">
+        <v>0.002</v>
+      </c>
+      <c r="G86">
+        <v>0.0026204966284819</v>
+      </c>
+      <c r="H86">
+        <v>0.01521871937205</v>
+      </c>
+      <c r="I86">
+        <v>0.00644</v>
+      </c>
+      <c r="L86">
+        <v>0.00192</v>
+      </c>
+      <c r="M86">
+        <v>0.00379</v>
+      </c>
+      <c r="N86">
+        <v>0.0049</v>
+      </c>
+      <c r="O86">
+        <v>1820825.9</v>
+      </c>
+      <c r="P86">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>49</v>
+      </c>
+      <c r="R86" t="s">
+        <v>50</v>
+      </c>
+      <c r="S86" t="s">
+        <v>51</v>
+      </c>
+      <c r="T86" t="s">
+        <v>52</v>
+      </c>
+      <c r="U86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87">
+        <v>0.002</v>
+      </c>
+      <c r="G87">
+        <v>0.0026204966284819</v>
+      </c>
+      <c r="H87">
+        <v>0.01521871937205</v>
+      </c>
+      <c r="I87">
+        <v>0.00644</v>
+      </c>
+      <c r="L87">
+        <v>0.00192</v>
+      </c>
+      <c r="M87">
+        <v>0.00379</v>
+      </c>
+      <c r="N87">
+        <v>0.0049</v>
+      </c>
+      <c r="O87">
+        <v>1820825.9</v>
+      </c>
+      <c r="P87">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>49</v>
+      </c>
+      <c r="R87" t="s">
+        <v>50</v>
+      </c>
+      <c r="S87" t="s">
+        <v>51</v>
+      </c>
+      <c r="T87" t="s">
+        <v>52</v>
+      </c>
+      <c r="U87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88">
+        <v>0.01</v>
+      </c>
+      <c r="G88">
+        <v>0.0123096990777658</v>
+      </c>
+      <c r="H88">
+        <v>0.049</v>
+      </c>
+      <c r="I88">
+        <v>0.03525</v>
+      </c>
+      <c r="L88">
+        <v>0.0055</v>
+      </c>
+      <c r="M88">
+        <v>0.01881</v>
+      </c>
+      <c r="N88">
+        <v>0.02294</v>
+      </c>
+      <c r="O88">
+        <v>1820825.9</v>
+      </c>
+      <c r="P88">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>49</v>
+      </c>
+      <c r="R88" t="s">
+        <v>50</v>
+      </c>
+      <c r="S88" t="s">
+        <v>51</v>
+      </c>
+      <c r="T88" t="s">
+        <v>52</v>
+      </c>
+      <c r="U88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>0.01</v>
+      </c>
+      <c r="G89">
+        <v>0.0123096990777658</v>
+      </c>
+      <c r="H89">
+        <v>0.049</v>
+      </c>
+      <c r="I89">
+        <v>0.03525</v>
+      </c>
+      <c r="L89">
+        <v>0.0055</v>
+      </c>
+      <c r="M89">
+        <v>0.01881</v>
+      </c>
+      <c r="N89">
+        <v>0.02294</v>
+      </c>
+      <c r="O89">
+        <v>1820825.9</v>
+      </c>
+      <c r="P89">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>49</v>
+      </c>
+      <c r="R89" t="s">
+        <v>50</v>
+      </c>
+      <c r="S89" t="s">
+        <v>51</v>
+      </c>
+      <c r="T89" t="s">
+        <v>52</v>
+      </c>
+      <c r="U89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90">
+        <v>0.016</v>
+      </c>
+      <c r="G90">
+        <v>0.0180438596491228</v>
+      </c>
+      <c r="H90">
+        <v>0.068</v>
+      </c>
+      <c r="I90">
+        <v>0.0443</v>
+      </c>
+      <c r="L90">
+        <v>0.012</v>
+      </c>
+      <c r="M90">
+        <v>0.026</v>
+      </c>
+      <c r="N90">
+        <v>0.03494</v>
+      </c>
+      <c r="O90">
+        <v>1820825.9</v>
+      </c>
+      <c r="P90">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>49</v>
+      </c>
+      <c r="R90" t="s">
+        <v>50</v>
+      </c>
+      <c r="S90" t="s">
+        <v>51</v>
+      </c>
+      <c r="T90" t="s">
+        <v>52</v>
+      </c>
+      <c r="U90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>0.016</v>
+      </c>
+      <c r="G91">
+        <v>0.0180438596491228</v>
+      </c>
+      <c r="H91">
+        <v>0.068</v>
+      </c>
+      <c r="I91">
+        <v>0.0443</v>
+      </c>
+      <c r="L91">
+        <v>0.012</v>
+      </c>
+      <c r="M91">
+        <v>0.026</v>
+      </c>
+      <c r="N91">
+        <v>0.03494</v>
+      </c>
+      <c r="O91">
+        <v>1820825.9</v>
+      </c>
+      <c r="P91">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>49</v>
+      </c>
+      <c r="R91" t="s">
+        <v>50</v>
+      </c>
+      <c r="S91" t="s">
+        <v>51</v>
+      </c>
+      <c r="T91" t="s">
+        <v>52</v>
+      </c>
+      <c r="U91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92">
+        <v>0.03</v>
+      </c>
+      <c r="G92">
+        <v>0.0354887661550322</v>
+      </c>
+      <c r="H92">
+        <v>0.16</v>
+      </c>
+      <c r="I92">
+        <v>0.1095</v>
+      </c>
+      <c r="L92">
+        <v>0.02</v>
+      </c>
+      <c r="M92">
+        <v>0.0581</v>
+      </c>
+      <c r="N92">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O92">
+        <v>1820825.9</v>
+      </c>
+      <c r="P92">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R92" t="s">
+        <v>50</v>
+      </c>
+      <c r="S92" t="s">
+        <v>51</v>
+      </c>
+      <c r="T92" t="s">
+        <v>52</v>
+      </c>
+      <c r="U92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93">
+        <v>0.03</v>
+      </c>
+      <c r="G93">
+        <v>0.0354887661550322</v>
+      </c>
+      <c r="H93">
+        <v>0.16</v>
+      </c>
+      <c r="I93">
+        <v>0.1095</v>
+      </c>
+      <c r="L93">
+        <v>0.02</v>
+      </c>
+      <c r="M93">
+        <v>0.0581</v>
+      </c>
+      <c r="N93">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O93">
+        <v>1820825.9</v>
+      </c>
+      <c r="P93">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>49</v>
+      </c>
+      <c r="R93" t="s">
+        <v>50</v>
+      </c>
+      <c r="S93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T93" t="s">
+        <v>52</v>
+      </c>
+      <c r="U93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94">
+        <v>0.014</v>
+      </c>
+      <c r="G94">
+        <v>0.0175964912280702</v>
+      </c>
+      <c r="H94">
+        <v>0.047</v>
+      </c>
+      <c r="I94">
+        <v>0.0356</v>
+      </c>
+      <c r="L94">
+        <v>0.015</v>
+      </c>
+      <c r="M94">
+        <v>0.027</v>
+      </c>
+      <c r="N94">
+        <v>0.032</v>
+      </c>
+      <c r="O94">
+        <v>1820825.9</v>
+      </c>
+      <c r="P94">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>49</v>
+      </c>
+      <c r="R94" t="s">
+        <v>50</v>
+      </c>
+      <c r="S94" t="s">
+        <v>51</v>
+      </c>
+      <c r="T94" t="s">
+        <v>52</v>
+      </c>
+      <c r="U94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95">
+        <v>0.014</v>
+      </c>
+      <c r="G95">
+        <v>0.0175964912280702</v>
+      </c>
+      <c r="H95">
+        <v>0.047</v>
+      </c>
+      <c r="I95">
+        <v>0.0356</v>
+      </c>
+      <c r="L95">
+        <v>0.015</v>
+      </c>
+      <c r="M95">
+        <v>0.027</v>
+      </c>
+      <c r="N95">
+        <v>0.032</v>
+      </c>
+      <c r="O95">
+        <v>1820825.9</v>
+      </c>
+      <c r="P95">
+        <v>5674346.8</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>49</v>
+      </c>
+      <c r="R95" t="s">
+        <v>50</v>
+      </c>
+      <c r="S95" t="s">
+        <v>51</v>
+      </c>
+      <c r="T95" t="s">
+        <v>52</v>
+      </c>
+      <c r="U95" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
